--- a/比較.xlsx
+++ b/比較.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
-  <si>
-    <t>（μ１、μ２、μ３、λ１、λ２、λ３）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <r>
       <rPr>
@@ -42,6 +39,21 @@
     <t>[0.03266443156885345,0.03362003115647776]</t>
   </si>
   <si>
+    <t>BC間の遅延1/0.01</t>
+  </si>
+  <si>
+    <t>[0.036404635619643806,0.0375185941878611]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.001</t>
+  </si>
+  <si>
+    <t>[0.03742151442369306,0.03855180385316984]</t>
+  </si>
+  <si>
+    <t>速い方</t>
+  </si>
+  <si>
     <t>1/10</t>
   </si>
   <si>
@@ -51,7 +63,19 @@
     <t>1/0.1</t>
   </si>
   <si>
+    <t>遅い方</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
     <t>1/5+1/10</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>(1/5+1/10)/2</t>
   </si>
   <si>
     <r>
@@ -77,6 +101,15 @@
     <t>[0.013698316678516733,0.014178114261418002]</t>
   </si>
   <si>
+    <t>[0.015311327705870098,0.016014861189944427]</t>
+  </si>
+  <si>
+    <t>[0.01570386796921519,0.01634986650666575]</t>
+  </si>
+  <si>
+    <t>速い方・遅い方・平均</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -103,16 +136,16 @@
     <t>*半年十回</t>
   </si>
   <si>
+    <t>[0.061558685991213294,0.06221329137002157]</t>
+  </si>
+  <si>
+    <t>[0.06128625320022738,0.06217730862066293]</t>
+  </si>
+  <si>
     <t>1/1</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="var(--jp-code-font-family)"/>
-        <charset val="134"/>
-      </rPr>
       <t>(1/10,1/10,1/10,1/0.1,1/0.001,1/0.001)</t>
     </r>
     <r>
@@ -160,18 +193,168 @@
   <si>
     <t>3/10</t>
   </si>
+  <si>
+    <r>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.018734396737466547,0.019538873238497692]</t>
+  </si>
+  <si>
+    <t>[0.02138542831085432,0.02232045902439607]</t>
+  </si>
+  <si>
+    <t>[0.02166313703369308,0.022610327165907048]</t>
+  </si>
+  <si>
+    <t>速いマイナーの通信能力が低い場合</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/5,1/10,1/0.1,1/1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.10572309254403688,0.10762366213094642]</t>
+  </si>
+  <si>
+    <t>[0.004899150560585031,0.005314288306922859]</t>
+  </si>
+  <si>
+    <t>[0.12870652361545173,0.13077018630437046]</t>
+  </si>
+  <si>
+    <t>[0.005796285274823797,0.006196114897203496]</t>
+  </si>
+  <si>
+    <t>[0.12930577232305315,0.13137433732690382]</t>
+  </si>
+  <si>
+    <t>[0.0059997514211062985,0.006571252094081844]</t>
+  </si>
+  <si>
+    <t>速い方・遅延大</t>
+  </si>
+  <si>
+    <t>速い方・遅延小</t>
+  </si>
+  <si>
+    <t>速い方・遅延和</t>
+  </si>
+  <si>
+    <t>1.1/0.1</t>
+  </si>
+  <si>
+    <t>速い方・遅延平均</t>
+  </si>
+  <si>
+    <t>1.1/0.2</t>
+  </si>
+  <si>
+    <t>遅い方・遅延大</t>
+  </si>
+  <si>
+    <t>遅い方・遅延小</t>
+  </si>
+  <si>
+    <t>遅い方・遅延和</t>
+  </si>
+  <si>
+    <t>遅い方・遅延平均</t>
+  </si>
+  <si>
+    <t>和・遅延大</t>
+  </si>
+  <si>
+    <t>和・遅延小</t>
+  </si>
+  <si>
+    <t>和・遅延和</t>
+  </si>
+  <si>
+    <t>和・遅延平均</t>
+  </si>
+  <si>
+    <t>平均・遅延大</t>
+  </si>
+  <si>
+    <t>3/20</t>
+  </si>
+  <si>
+    <t>平均・遅延小</t>
+  </si>
+  <si>
+    <t>平均・遅延和</t>
+  </si>
+  <si>
+    <t>平均・遅延平均</t>
+  </si>
+  <si>
+    <t>速いマイナーの通信能力が高い場合</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.05972744335636611,0.0612879335691594]</t>
+  </si>
+  <si>
+    <t>[0.0013718774380853391,0.001584832134433651]</t>
+  </si>
+  <si>
+    <t>[0.08290236471772708,0.08465239582052653]</t>
+  </si>
+  <si>
+    <t>[0.00233364612697775,0.0026439108860502373]</t>
+  </si>
+  <si>
+    <t>[0.08328215512487196,0.08479167343457596]</t>
+  </si>
+  <si>
+    <t>[0.002322731946482591,0.002643607354877036]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +370,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
+      <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +405,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,30 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -261,15 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,46 +453,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +467,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
@@ -345,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +747,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,39 +763,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +792,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,25 +833,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,122 +860,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,13 +988,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,259 +1340,1007 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A1" sqref="A1:N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="5" max="5" width="14.3333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="13.8" spans="2:8">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="13.8" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="13.8" spans="2:13">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="13.8" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" ht="13.8" spans="2:13">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" ht="13.8" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.0260406537439864</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" ht="13.8" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G4" s="4">
+        <v>0.000354761227283131</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.71261843598288e-6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6.25810355088727e-8</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.009852611</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9.87016768736725e-9</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.0434851977115885</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="13.8" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="13.8" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0194204672763194</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.006508833</v>
-      </c>
+      <c r="G6" s="4">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.50785185595398e-7</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0176615993038843</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.000214915420375127</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.57092454028941e-6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.07484018184716e-8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="13.8" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="13.8" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="13.8" spans="2:13">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="2:13">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.006508833</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="13.8" spans="1:6">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" ht="13.8" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0876303795868481</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" ht="13.8" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="13.8" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0131635759811123</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.0194204672763194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" ht="13.8" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" ht="13.8" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" spans="2:13">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" ht="13.8" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="H16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" ht="13.8" spans="2:13">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" ht="13.8" spans="1:8">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0303392432168261</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" ht="13.8" spans="1:8">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.0876303795868481</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" ht="13.8" spans="2:8">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" spans="2:8">
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.0131635759811123</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" ht="13.8" spans="2:8">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" ht="13.8" spans="2:8">
+      <c r="B25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.0346770655733595</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="27" ht="13.8" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8" spans="2:13">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" ht="13.8" spans="2:13">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" ht="13.8" spans="1:8">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.009852611</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" spans="1:13">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" ht="13.8" spans="2:13">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" ht="13.8" spans="2:13">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" ht="13.8" spans="1:8">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.132998632376696</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.0111022448946062</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.000833260261723595</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" spans="1:8">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.000354761227283131</v>
+      </c>
+      <c r="H37" s="5">
+        <v>4.71261843598288e-6</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" spans="1:8">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.0248672166885579</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.000323074428367139</v>
+      </c>
+      <c r="H38" s="5">
+        <v>4.09745154061787e-6</v>
+      </c>
+    </row>
+    <row r="39" ht="13.8" spans="1:8">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.0365184623902113</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.00070832226771833</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.32655814947102e-5</v>
+      </c>
+    </row>
+    <row r="40" ht="13.8" spans="1:8">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.0515979468488606</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.0030029647000337</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.000168205675450791</v>
+      </c>
+    </row>
+    <row r="41" ht="13.8" spans="1:8">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.00985261140252574</v>
+      </c>
+      <c r="G41" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" spans="1:8">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.00940692289425339</v>
+      </c>
+      <c r="G42" s="5">
+        <v>9.0394181448123e-5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>8.60786572216551e-7</v>
+      </c>
+    </row>
+    <row r="43" ht="13.8" spans="1:8">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.0138440568433574</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.000197230832723091</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.77302300847913e-6</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" spans="1:8">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.215041661885566</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.0217786462530999</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.00184369930867341</v>
+      </c>
+    </row>
+    <row r="45" ht="13.8" spans="1:8">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+    </row>
+    <row r="46" ht="13.8" spans="1:8">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.0415363611249548</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.000616406299788715</v>
+      </c>
+      <c r="H46" s="5">
+        <v>8.78509093887991e-6</v>
+      </c>
+    </row>
+    <row r="47" ht="13.8" spans="1:8">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.0608217857885321</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.00135769826642413</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2.8576708921136e-5</v>
+      </c>
+    </row>
+    <row r="48" ht="13.8" spans="1:8">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.0914766308633076</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.00662090168770224</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.000446255634629765</v>
+      </c>
+    </row>
+    <row r="49" ht="13.8" spans="1:8">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.0176615993038843</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.000214915420375127</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2.57092454028941e-6</v>
+      </c>
+    </row>
+    <row r="50" ht="13.8" spans="1:8">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.0168639466336086</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.000195764545404867</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2.23577382582583e-6</v>
+      </c>
+    </row>
+    <row r="51" ht="13.8" spans="1:8">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.0247956353085708</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.000428181836377749</v>
+      </c>
+      <c r="H51" s="5">
+        <v>7.22065073773685e-6</v>
+      </c>
+    </row>
+    <row r="53" ht="13.8" spans="1:10">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" ht="13.8" spans="2:10">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" ht="13.8" spans="2:10">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/比較.xlsx
+++ b/比較.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <r>
       <rPr>
@@ -51,6 +54,18 @@
     <t>[0.03742151442369306,0.03855180385316984]</t>
   </si>
   <si>
+    <t>BC間の遅延1/0.0001</t>
+  </si>
+  <si>
+    <t>[0.03751411845511342,0.03844448155555087]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.00001</t>
+  </si>
+  <si>
+    <t>[0.037438781322456996,0.03828691202822493]</t>
+  </si>
+  <si>
     <t>速い方</t>
   </si>
   <si>
@@ -76,6 +91,15 @@
   </si>
   <si>
     <t>(1/5+1/10)/2</t>
+  </si>
+  <si>
+    <t>調和平均</t>
+  </si>
+  <si>
+    <t>1/7.5</t>
+  </si>
+  <si>
+    <t>blkrate</t>
   </si>
   <si>
     <r>
@@ -107,6 +131,12 @@
     <t>[0.01570386796921519,0.01634986650666575]</t>
   </si>
   <si>
+    <t>[0.015647201191325222,0.01636861635385708]</t>
+  </si>
+  <si>
+    <t>[0.01563129868369653,0.01635679104215532]</t>
+  </si>
+  <si>
     <t>速い方・遅い方・平均</t>
   </si>
   <si>
@@ -142,6 +172,12 @@
     <t>[0.06128625320022738,0.06217730862066293]</t>
   </si>
   <si>
+    <t>[0.0611591856848055,0.062028889897658555]</t>
+  </si>
+  <si>
+    <t>[0.06114884032387803,0.06202964134052834]</t>
+  </si>
+  <si>
     <t>1/1</t>
   </si>
   <si>
@@ -252,6 +288,18 @@
     <t>[0.0059997514211062985,0.006571252094081844]</t>
   </si>
   <si>
+    <t>[0.1292642844130095,0.13118096232068763]</t>
+  </si>
+  <si>
+    <t>[0.1291421883735724,0.13099844548763256]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.000001</t>
+  </si>
+  <si>
+    <t>[0.1293386466234709,0.13112437256535692]</t>
+  </si>
+  <si>
     <t>速い方・遅延大</t>
   </si>
   <si>
@@ -270,6 +318,12 @@
     <t>1.1/0.2</t>
   </si>
   <si>
+    <t>速い方・遅延調和平均</t>
+  </si>
+  <si>
+    <t>1/0.55</t>
+  </si>
+  <si>
     <t>遅い方・遅延大</t>
   </si>
   <si>
@@ -282,6 +336,9 @@
     <t>遅い方・遅延平均</t>
   </si>
   <si>
+    <t>遅い方・遅延調和平均</t>
+  </si>
+  <si>
     <t>和・遅延大</t>
   </si>
   <si>
@@ -294,6 +351,9 @@
     <t>和・遅延平均</t>
   </si>
   <si>
+    <t>和・遅延調和平均</t>
+  </si>
+  <si>
     <t>平均・遅延大</t>
   </si>
   <si>
@@ -307,6 +367,39 @@
   </si>
   <si>
     <t>平均・遅延平均</t>
+  </si>
+  <si>
+    <t>平均・遅延調和平均</t>
+  </si>
+  <si>
+    <t>調和平均・遅延大</t>
+  </si>
+  <si>
+    <t>調和平均・遅延小</t>
+  </si>
+  <si>
+    <t>調和平均・遅延和</t>
+  </si>
+  <si>
+    <t>調和平均・遅延平均</t>
+  </si>
+  <si>
+    <t>調和平均・遅延調和平均</t>
+  </si>
+  <si>
+    <t>blkrate・遅延大</t>
+  </si>
+  <si>
+    <t>blkrate・遅延小</t>
+  </si>
+  <si>
+    <t>blkrate・遅延和</t>
+  </si>
+  <si>
+    <t>blkrate・遅延平均</t>
+  </si>
+  <si>
+    <t>blkrate・遅延調和平均</t>
   </si>
   <si>
     <t>速いマイナーの通信能力が高い場合</t>
@@ -354,7 +447,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +465,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -833,7 +932,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,13 +941,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -857,125 +956,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,8 +1105,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1080,6 +1185,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="test"/>
+      <sheetName val="後続0"/>
+      <sheetName val="後続１"/>
+      <sheetName val="3miner後続0"/>
+      <sheetName val="3miner後続1"/>
+      <sheetName val="hikaku"/>
+      <sheetName val="BC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="G2">
+            <v>0.196097034984798</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>0.263321960714897</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.292287297950888</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,10 +1486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N55"/>
+      <selection activeCell="A1" sqref="A1:K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1392,955 +1538,1598 @@
       <c r="H3" s="3"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" ht="13.8" spans="2:8">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="13.8" spans="2:8">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0260406537439864</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.000354761227283131</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4.71261843598288e-6</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6.25810355088727e-8</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.009852611</v>
-      </c>
-      <c r="G5" s="5">
-        <v>9.92139306565054e-5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>9.89621290084271e-7</v>
-      </c>
-      <c r="I5" s="5">
-        <v>9.87016768736725e-9</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="13.8" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0434851977115885</v>
+        <v>0.0260406537439864</v>
       </c>
       <c r="G6" s="4">
-        <v>0.000677170303621994</v>
+        <v>0.000354761227283131</v>
       </c>
       <c r="H6" s="5">
-        <v>1.01080200179584e-5</v>
+        <v>4.71261843598288e-6</v>
       </c>
       <c r="I6" s="5">
-        <v>1.50785185595398e-7</v>
+        <v>6.25810355088727e-8</v>
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.009852611</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9.87016768736725e-9</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.50785185595398e-7</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" spans="1:9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.0176615993038843</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G9" s="4">
         <v>0.000214915420375127</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H9" s="5">
         <v>2.57092454028941e-6</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I9" s="5">
         <v>3.07484018184716e-8</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="6"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" ht="13.8" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" ht="13.8" spans="2:13">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
+    <row r="10" ht="13.8" spans="1:13">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0149736107205459</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.000173111500567587</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.97261859309119e-6</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" ht="13.8" spans="2:13">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="3"/>
+    <row r="11" ht="13.8" spans="1:13">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>[1]BC!G4</f>
+        <v>0.292287297950888</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0421247701318589</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.00065087224075265</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9.65268623738724e-6</v>
+      </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.006508833</v>
-      </c>
+    <row r="12" spans="2:8">
+      <c r="B12" s="6"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" ht="13.8" spans="1:6">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.0194204672763194</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+    <row r="13" ht="13.8" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" ht="13.8" spans="2:8">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" ht="13.8" spans="2:8">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" ht="13.8" spans="2:13">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="3"/>
+      <c r="E16"/>
       <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="3"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" ht="13.8" spans="2:13">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="3"/>
+      <c r="E17"/>
       <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="3"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" ht="13.8" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.0303392432168261</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.006508833</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" ht="13.8" spans="1:8">
+    <row r="19" ht="13.8" spans="1:6">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0876303795868481</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" ht="13.8" spans="2:8">
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>0.0194204672763194</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" spans="1:8">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3">
+        <f>[1]BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.0188590270292657</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.000378126531642115</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7.44973084823355e-6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" ht="13.8" spans="2:8">
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="1">
-        <v>0.0131635759811123</v>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" spans="2:8">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="13.8" spans="2:8">
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" ht="13.8" spans="2:8">
-      <c r="B25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.0346770655733595</v>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="27" ht="13.8" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" ht="13.8" spans="2:13">
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
+    <row r="26" ht="13.8" spans="2:8">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" ht="13.8" spans="1:8">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.0303392432168261</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" ht="13.8" spans="1:13">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.0876303795868481</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" ht="13.8" spans="2:13">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
+    <row r="29" ht="13.8" spans="1:13">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <f>[1]BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="E29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.0852240504896488</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.00960603410511941</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.0010528999396369</v>
+      </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" ht="13.8" spans="1:8">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.0260406537439864</v>
-      </c>
+    <row r="30" spans="2:8">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7">
+    <row r="31" ht="13.8" spans="2:8">
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" spans="2:8">
+      <c r="B32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.0131635759811123</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" ht="13.8" spans="2:13">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" ht="13.8" spans="2:13">
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" ht="13.8" spans="2:13">
+      <c r="B35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.0346770655733595</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="37" ht="13.8" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" spans="2:6">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" ht="13.8" spans="2:6">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7">
         <v>0.009852611</v>
       </c>
-    </row>
-    <row r="33" ht="13.8" spans="1:13">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="J33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" ht="13.8" spans="2:13">
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" ht="13.8" spans="2:13">
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" ht="13.8" spans="1:8">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.132998632376696</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.0111022448946062</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.000833260261723595</v>
-      </c>
-    </row>
-    <row r="37" ht="13.8" spans="1:8">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" ht="13.8" spans="1:6">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="9">
         <v>0.0260406537439864</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.000354761227283131</v>
-      </c>
-      <c r="H37" s="5">
-        <v>4.71261843598288e-6</v>
-      </c>
-    </row>
-    <row r="38" ht="13.8" spans="1:8">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.0248672166885579</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.000323074428367139</v>
-      </c>
-      <c r="H38" s="5">
-        <v>4.09745154061787e-6</v>
-      </c>
-    </row>
-    <row r="39" ht="13.8" spans="1:8">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.0365184623902113</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.00070832226771833</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1.32655814947102e-5</v>
-      </c>
-    </row>
-    <row r="40" ht="13.8" spans="1:8">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.0515979468488606</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.0030029647000337</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.000168205675450791</v>
-      </c>
-    </row>
-    <row r="41" ht="13.8" spans="1:8">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.00985261140252574</v>
-      </c>
-      <c r="G41" s="5">
-        <v>9.92139306565054e-5</v>
-      </c>
-      <c r="H41" s="5">
-        <v>9.89621290084271e-7</v>
       </c>
     </row>
     <row r="42" ht="13.8" spans="1:8">
       <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <f>[1]BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.0253740486023668</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.00034319396856005</v>
+      </c>
+      <c r="H42" s="5">
+        <v>4.52911923775396e-6</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" spans="1:10">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44"/>
+      <c r="J44" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" ht="13.8" spans="2:10">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.00940692289425339</v>
-      </c>
-      <c r="G42" s="5">
-        <v>9.0394181448123e-5</v>
-      </c>
-      <c r="H42" s="5">
-        <v>8.60786572216551e-7</v>
-      </c>
-    </row>
-    <row r="43" ht="13.8" spans="1:8">
-      <c r="A43" t="s">
+    </row>
+    <row r="46" ht="13.8" spans="2:10">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.0138440568433574</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.000197230832723091</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2.77302300847913e-6</v>
-      </c>
-    </row>
-    <row r="44" ht="13.8" spans="1:8">
-      <c r="A44" t="s">
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="J46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.215041661885566</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.0217786462530999</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.00184369930867341</v>
-      </c>
-    </row>
-    <row r="45" ht="13.8" spans="1:8">
-      <c r="A45" t="s">
+    </row>
+    <row r="47" ht="13.8" spans="2:10">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.0434851977115885</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.000677170303621994</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1.01080200179584e-5</v>
-      </c>
-    </row>
-    <row r="46" ht="13.8" spans="1:8">
-      <c r="A46" t="s">
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" ht="13.8" spans="2:10">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.0415363611249548</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.000616406299788715</v>
-      </c>
-      <c r="H46" s="5">
-        <v>8.78509093887991e-6</v>
-      </c>
-    </row>
-    <row r="47" ht="13.8" spans="1:8">
-      <c r="A47" t="s">
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" ht="13.8" spans="2:10">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.0608217857885321</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.00135769826642413</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2.8576708921136e-5</v>
-      </c>
-    </row>
-    <row r="48" ht="13.8" spans="1:8">
-      <c r="A48" t="s">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.0914766308633076</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.00662090168770224</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0.000446255634629765</v>
-      </c>
-    </row>
-    <row r="49" ht="13.8" spans="1:8">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.0176615993038843</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.000214915420375127</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2.57092454028941e-6</v>
-      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="1:8">
       <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>48</v>
+      <c r="B50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="F50" s="4">
-        <v>0.0168639466336086</v>
+        <v>0.132998632376696</v>
       </c>
       <c r="G50" s="4">
-        <v>0.000195764545404867</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2.23577382582583e-6</v>
+        <v>0.0111022448946062</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.000833260261723595</v>
       </c>
     </row>
     <row r="51" ht="13.8" spans="1:8">
       <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.000354761227283131</v>
+      </c>
+      <c r="H51" s="5">
+        <v>4.71261843598288e-6</v>
+      </c>
+    </row>
+    <row r="52" ht="13.8" spans="1:8">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.0247956353085708</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.000428181836377749</v>
-      </c>
-      <c r="H51" s="5">
-        <v>7.22065073773685e-6</v>
-      </c>
-    </row>
-    <row r="53" ht="13.8" spans="1:10">
+      <c r="F52" s="4">
+        <v>0.0248672166885579</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.000323074428367139</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4.09745154061787e-6</v>
+      </c>
+    </row>
+    <row r="53" ht="13.8" spans="1:8">
       <c r="A53" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="4">
+        <v>0.0365184623902113</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.00070832226771833</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1.32655814947102e-5</v>
+      </c>
+    </row>
+    <row r="54" ht="13.8" spans="1:8">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="B54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" ht="13.8" spans="2:10">
-      <c r="B54" t="s">
+      <c r="F54" s="4">
+        <v>0.0817930086632881</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.00384951053969914</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.000168588241900391</v>
+      </c>
+    </row>
+    <row r="55" ht="13.8" spans="1:8">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.0515979468488606</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.0030029647000337</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.000168205675450791</v>
+      </c>
+    </row>
+    <row r="56" ht="13.8" spans="1:8">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.00985261140252574</v>
+      </c>
+      <c r="G56" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H56" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+    </row>
+    <row r="57" ht="13.8" spans="1:8">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.00940692289425339</v>
+      </c>
+      <c r="G57" s="5">
+        <v>9.0394181448123e-5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>8.60786572216551e-7</v>
+      </c>
+    </row>
+    <row r="58" ht="13.8" spans="1:8">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.0138440568433574</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.000197230832723091</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2.77302300847913e-6</v>
+      </c>
+    </row>
+    <row r="59" ht="13.8" spans="1:8">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.0313369495786809</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.001054136638148</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3.45260959879863e-5</v>
+      </c>
+    </row>
+    <row r="60" ht="13.8" spans="1:8">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.215041661885566</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.0217786462530999</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.00184369930867341</v>
+      </c>
+    </row>
+    <row r="61" ht="13.8" spans="1:8">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+    </row>
+    <row r="62" ht="13.8" spans="1:8">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.0415363611249548</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.000616406299788715</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8.78509093887991e-6</v>
+      </c>
+    </row>
+    <row r="63" ht="13.8" spans="1:8">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.0608217857885321</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.00135769826642413</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2.8576708921136e-5</v>
+      </c>
+    </row>
+    <row r="64" ht="13.8" spans="1:8">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.134397696490344</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.00748607348507301</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.000369504306732009</v>
+      </c>
+    </row>
+    <row r="65" ht="13.8" spans="1:8">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.0914766308633076</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.00662090168770224</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.000446255634629765</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8" spans="1:8">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.0176615993038843</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.000214915420375127</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2.57092454028941e-6</v>
+      </c>
+    </row>
+    <row r="67" ht="13.8" spans="1:8">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.0168639466336086</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.000195764545404867</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2.23577382582583e-6</v>
+      </c>
+    </row>
+    <row r="68" ht="13.8" spans="1:8">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.0247956353085708</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0.000428181836377749</v>
+      </c>
+      <c r="H68" s="5">
+        <v>7.22065073773685e-6</v>
+      </c>
+    </row>
+    <row r="69" ht="13.8" spans="1:8">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.0558644960260217</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.00230847372307056</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9.08698660509845e-5</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8" spans="1:8">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.0778738254589315</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.00530303673819578</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.000340117919056566</v>
+      </c>
+    </row>
+    <row r="71" ht="13.8" spans="1:8">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.0149736107205459</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.000173111500567587</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1.97261859309119e-6</v>
+      </c>
+    </row>
+    <row r="72" ht="13.8" spans="1:8">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.0142969323461873</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.000157697932481938</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1.71557954757973e-6</v>
+      </c>
+    </row>
+    <row r="73" ht="13.8" spans="1:8">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.0210286260135363</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0.000344643481420623</v>
+      </c>
+      <c r="H73" s="5">
+        <v>5.53603522200757e-6</v>
+      </c>
+    </row>
+    <row r="74" ht="13.8" spans="1:8">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.0474596426672601</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.00185286995790357</v>
+      </c>
+      <c r="H74" s="5">
+        <v>6.94285939867944e-5</v>
+      </c>
+    </row>
+    <row r="75" ht="13.8" spans="1:8">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="10">
+        <f>[1]BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.185379431424625</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.0176476145970951</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.00144268733210044</v>
+      </c>
+    </row>
+    <row r="76" ht="13.8" spans="1:8">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="10">
+        <f>[1]BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.0370299839683661</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.000553953796306073</v>
+      </c>
+      <c r="H76" s="5">
+        <v>7.99400597943622e-6</v>
+      </c>
+    </row>
+    <row r="77" ht="13.8" spans="1:8">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="10">
+        <f>[1]BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.0353669411973146</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0.00050432988240496</v>
+      </c>
+      <c r="H77" s="5">
+        <v>6.94875673383692e-6</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8" spans="1:8">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="10">
+        <f>[1]BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.0518452041184044</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0.00110897753788579</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2.25647747423338e-5</v>
+      </c>
+    </row>
+    <row r="79" ht="13.8" spans="1:8">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="10">
+        <f>[1]BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.115152140804561</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0.00608362937736228</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0.00029001993201436</v>
+      </c>
+    </row>
+    <row r="82" ht="13.8" spans="1:10">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" ht="13.8" spans="2:10">
+      <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" ht="13.8" spans="2:10">
-      <c r="B55" t="s">
+      <c r="F83" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" ht="13.8" spans="2:10">
+      <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="F84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/比較.xlsx
+++ b/比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="10500"/>
+    <workbookView windowWidth="21480" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <r>
       <rPr>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/10,1/10,1/0.1,1/0.001,1/0.001)</t>
     </r>
     <r>
@@ -231,6 +237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
     </r>
     <r>
@@ -257,6 +269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/5,1/10,1/0.1,1/1,1/0.1)</t>
     </r>
     <r>
@@ -406,6 +424,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/1)</t>
     </r>
     <r>
@@ -435,6 +459,386 @@
   </si>
   <si>
     <t>[0.002322731946482591,0.002643607354877036]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を基準に二者間の解析をする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μB&amp;C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blkrate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を採用、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λB&amp;C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>は手探りで</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.00012232341686245235,0.00019192620155432827]</t>
+  </si>
+  <si>
+    <t>A-BC間の遅延パラメータ</t>
+  </si>
+  <si>
+    <t>破棄される確率</t>
+  </si>
+  <si>
+    <t>1/0.01</t>
+  </si>
+  <si>
+    <t>1/0.02</t>
+  </si>
+  <si>
+    <t>1/0.03</t>
+  </si>
+  <si>
+    <t>1/0.04</t>
+  </si>
+  <si>
+    <t>1/0.041</t>
+  </si>
+  <si>
+    <t>1/0.042</t>
+  </si>
+  <si>
+    <t>1/0.043</t>
+  </si>
+  <si>
+    <t>1/0.044</t>
+  </si>
+  <si>
+    <t>1/0.0441</t>
+  </si>
+  <si>
+    <t>1/0.0442</t>
+  </si>
+  <si>
+    <t>1/0.0443</t>
+  </si>
+  <si>
+    <t>1/0.0444</t>
+  </si>
+  <si>
+    <t>1/0.0445</t>
+  </si>
+  <si>
+    <t>1/0.0446</t>
+  </si>
+  <si>
+    <t>1/0.0447</t>
+  </si>
+  <si>
+    <t>1/0.0448</t>
+  </si>
+  <si>
+    <t>1/0.0449</t>
+  </si>
+  <si>
+    <t>1/0.045</t>
+  </si>
+  <si>
+    <t>1/0.0451</t>
+  </si>
+  <si>
+    <t>1/0.0452</t>
+  </si>
+  <si>
+    <t>1/0.0453</t>
+  </si>
+  <si>
+    <t>1/0.0454</t>
+  </si>
+  <si>
+    <t>1/0.0455</t>
+  </si>
+  <si>
+    <t>1/0.0456</t>
+  </si>
+  <si>
+    <t>1/0.0457</t>
+  </si>
+  <si>
+    <t>1/0.0458</t>
+  </si>
+  <si>
+    <t>1/0.0459</t>
+  </si>
+  <si>
+    <t>1/0.046</t>
+  </si>
+  <si>
+    <t>1/0.0461</t>
+  </si>
+  <si>
+    <t>1/0.0462</t>
+  </si>
+  <si>
+    <t>1/0.0463</t>
+  </si>
+  <si>
+    <t>1/0.0464</t>
+  </si>
+  <si>
+    <t>1/0.0465</t>
+  </si>
+  <si>
+    <t>1/0.0466</t>
+  </si>
+  <si>
+    <t>1/0.0467</t>
+  </si>
+  <si>
+    <t>1/0.0468</t>
+  </si>
+  <si>
+    <t>1/0.0469</t>
+  </si>
+  <si>
+    <t>1/0.047</t>
+  </si>
+  <si>
+    <t>1/0.0471</t>
+  </si>
+  <si>
+    <t>1/0.0472</t>
+  </si>
+  <si>
+    <t>1/0.0473</t>
+  </si>
+  <si>
+    <t>1/0.0474</t>
+  </si>
+  <si>
+    <t>1/0.0475</t>
+  </si>
+  <si>
+    <t>1/0.0476</t>
+  </si>
+  <si>
+    <t>1/0.0477</t>
+  </si>
+  <si>
+    <t>1/0.0478</t>
+  </si>
+  <si>
+    <t>1/0.0479</t>
+  </si>
+  <si>
+    <t>1/0.048</t>
+  </si>
+  <si>
+    <t>1/0.0481</t>
+  </si>
+  <si>
+    <t>1/0.0482</t>
+  </si>
+  <si>
+    <t>1/0.0483</t>
+  </si>
+  <si>
+    <t>1/0.0484</t>
+  </si>
+  <si>
+    <t>1/0.0485</t>
+  </si>
+  <si>
+    <t>1/0.0486</t>
+  </si>
+  <si>
+    <t>1/0.0487</t>
+  </si>
+  <si>
+    <t>1/0.0488</t>
+  </si>
+  <si>
+    <t>1/0.0489</t>
+  </si>
+  <si>
+    <t>1/0.049</t>
+  </si>
+  <si>
+    <t>1/0.0491</t>
+  </si>
+  <si>
+    <t>1/0.0492</t>
+  </si>
+  <si>
+    <t>1/0.0493</t>
+  </si>
+  <si>
+    <t>1/0.0494</t>
+  </si>
+  <si>
+    <t>1/0.0495</t>
+  </si>
+  <si>
+    <t>1/0.0496</t>
+  </si>
+  <si>
+    <t>1/0.0497</t>
+  </si>
+  <si>
+    <t>1/0.0498</t>
+  </si>
+  <si>
+    <t>1/0.0499</t>
+  </si>
+  <si>
+    <t>1/0.05</t>
+  </si>
+  <si>
+    <t>1/0.0501</t>
+  </si>
+  <si>
+    <t>1/0.0502</t>
+  </si>
+  <si>
+    <t>1/0.0503</t>
+  </si>
+  <si>
+    <t>1/0.0504</t>
+  </si>
+  <si>
+    <t>1/0.0505</t>
+  </si>
+  <si>
+    <t>1/0.0506</t>
+  </si>
+  <si>
+    <t>1/0.0507</t>
+  </si>
+  <si>
+    <t>1/0.0508</t>
+  </si>
+  <si>
+    <t>1/0.0509</t>
+  </si>
+  <si>
+    <t>1/0.051</t>
+  </si>
+  <si>
+    <t>1/0.0511</t>
+  </si>
+  <si>
+    <t>1/0.0512</t>
+  </si>
+  <si>
+    <t>1/0.0513</t>
+  </si>
+  <si>
+    <t>1/0.0514</t>
+  </si>
+  <si>
+    <t>1/0.0515</t>
+  </si>
+  <si>
+    <t>1/0.0516</t>
+  </si>
+  <si>
+    <t>1/0.0517</t>
+  </si>
+  <si>
+    <t>1/0.0518</t>
+  </si>
+  <si>
+    <t>1/0.0519</t>
+  </si>
+  <si>
+    <t>1/0.052</t>
+  </si>
+  <si>
+    <t>1/0.053</t>
+  </si>
+  <si>
+    <t>1/0.054</t>
+  </si>
+  <si>
+    <t>1/0.055</t>
+  </si>
+  <si>
+    <t>1/0.056</t>
+  </si>
+  <si>
+    <t>1/0.057</t>
+  </si>
+  <si>
+    <t>1/0.058</t>
+  </si>
+  <si>
+    <t>1/0.059</t>
+  </si>
+  <si>
+    <t>1/0.06</t>
+  </si>
+  <si>
+    <t>1/0.07</t>
+  </si>
+  <si>
+    <t>1/0.08</t>
+  </si>
+  <si>
+    <t>1/0.09</t>
   </si>
 </sst>
 </file>
@@ -474,6 +878,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -484,6 +919,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -491,7 +934,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,14 +948,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,11 +969,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,36 +993,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,26 +1008,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,13 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +1073,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,19 +1175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,37 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,61 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,6 +1228,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,8 +1267,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,15 +1314,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -915,15 +1328,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -932,7 +1336,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,136 +1345,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,17 +1506,17 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1187,6 +1591,79 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="14470380"/>
+          <a:ext cx="609600" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="14470380"/>
+          <a:ext cx="609600" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1209,17 +1686,17 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="G2">
-            <v>0.196097034984798</v>
+            <v>0.19874537037037</v>
           </cell>
         </row>
         <row r="3">
           <cell r="G3">
-            <v>0.263321960714897</v>
+            <v>0.282515432098765</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.292287297950888</v>
+            <v>0.298587962962963</v>
           </cell>
         </row>
       </sheetData>
@@ -1486,10 +1963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1514,8 +1991,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -1528,8 +2003,6 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -1538,31 +2011,29 @@
       <c r="H3" s="3"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="13.8" spans="2:8">
+    <row r="4" ht="13.8" spans="2:13">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" ht="13.8" spans="2:8">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" ht="13.8" spans="2:13">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="13.8" spans="1:9">
       <c r="A6" t="s">
@@ -1680,7 +2151,7 @@
         <v>3.07484018184716e-8</v>
       </c>
     </row>
-    <row r="10" ht="13.8" spans="1:13">
+    <row r="10" ht="13.8" spans="1:9">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1706,9 +2177,8 @@
         <v>1.97261859309119e-6</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" ht="13.8" spans="1:13">
+    </row>
+    <row r="11" ht="13.8" spans="1:8">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +2187,7 @@
       </c>
       <c r="C11">
         <f>[1]BC!G4</f>
-        <v>0.292287297950888</v>
+        <v>0.298587962962963</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>13</v>
@@ -1734,13 +2204,9 @@
       <c r="H11" s="5">
         <v>9.65268623738724e-6</v>
       </c>
-      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="6"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1758,39 +2224,33 @@
       <c r="G13" s="8"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" ht="13.8" spans="2:8">
+    <row r="14" ht="13.8" spans="2:13">
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" ht="13.8" spans="2:8">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" ht="13.8" spans="2:13">
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="3"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" ht="13.8" spans="2:13">
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
       <c r="F16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1802,9 +2262,6 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
       <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +2320,7 @@
       </c>
       <c r="C20" s="3">
         <f>[1]BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -1905,46 +2362,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" ht="13.8" spans="2:8">
+    <row r="23" ht="13.8" spans="2:13">
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" ht="13.8" spans="2:8">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" ht="13.8" spans="2:13">
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" ht="13.8" spans="2:8">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" ht="13.8" spans="2:13">
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" ht="13.8" spans="2:8">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" ht="13.8" spans="2:13">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -1954,6 +2408,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="1:8">
       <c r="A27" t="s">
@@ -1977,7 +2432,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" ht="13.8" spans="1:13">
+    <row r="28" ht="13.8" spans="1:8">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1998,9 +2453,8 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" ht="13.8" spans="1:13">
+    </row>
+    <row r="29" ht="13.8" spans="1:8">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +2463,7 @@
       </c>
       <c r="C29" s="3">
         <f>[1]BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>36</v>
@@ -2026,7 +2480,6 @@
       <c r="H29" s="4">
         <v>0.0010528999396369</v>
       </c>
-      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3"/>
@@ -2071,7 +2524,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" ht="13.8" spans="2:13">
+    <row r="33" spans="2:8">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2079,9 +2532,8 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" ht="13.8" spans="2:13">
+    </row>
+    <row r="34" ht="13.8" spans="2:8">
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,11 +2545,8 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" ht="13.8" spans="2:13">
+    </row>
+    <row r="35" ht="13.8" spans="2:8">
       <c r="B35" s="13" t="s">
         <v>12</v>
       </c>
@@ -2115,37 +2564,32 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="M35" s="4"/>
     </row>
     <row r="37" ht="13.8" spans="2:6">
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" ht="13.8" spans="2:6">
+    <row r="38" ht="13.8" spans="2:13">
       <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
       <c r="F38" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" ht="13.8" spans="2:6">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" ht="13.8" spans="2:13">
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
       <c r="F39" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
@@ -2185,7 +2629,7 @@
       <c r="E41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="4">
         <v>0.0260406537439864</v>
       </c>
     </row>
@@ -2198,7 +2642,7 @@
       </c>
       <c r="C42">
         <f>[1]BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>13</v>
@@ -2216,7 +2660,7 @@
         <v>4.52911923775396e-6</v>
       </c>
     </row>
-    <row r="44" ht="13.8" spans="1:10">
+    <row r="44" ht="13.8" spans="1:13">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2227,85 +2671,66 @@
         <v>50</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44"/>
       <c r="J44" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" ht="13.8" spans="2:10">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" ht="13.8" spans="2:13">
       <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
       <c r="F45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G45"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" ht="13.8" spans="2:10">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" ht="13.8" spans="2:13">
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
       <c r="F46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
       <c r="J46" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" ht="13.8" spans="2:10">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" ht="13.8" spans="2:13">
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
       <c r="F47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" ht="13.8" spans="2:10">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" ht="13.8" spans="2:13">
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
       <c r="F48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" ht="13.8" spans="2:10">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" ht="13.8" spans="2:13">
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
       <c r="F49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
       <c r="J49" s="4"/>
+      <c r="M49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="1:8">
       <c r="A50" t="s">
@@ -2349,7 +2774,7 @@
       <c r="E51" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="4">
         <v>0.0260406537439864</v>
       </c>
       <c r="G51" s="4">
@@ -2964,9 +3389,9 @@
       <c r="B75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <f>[1]BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>13</v>
@@ -2991,9 +3416,9 @@
       <c r="B76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <f>[1]BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>13</v>
@@ -3018,9 +3443,9 @@
       <c r="B77" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <f>[1]BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>13</v>
@@ -3045,9 +3470,9 @@
       <c r="B78" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <f>[1]BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>13</v>
@@ -3072,9 +3497,9 @@
       <c r="B79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <f>[1]BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>13</v>
@@ -3099,7 +3524,7 @@
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>96</v>
       </c>
       <c r="J82" s="4" t="s">
@@ -3129,10 +3554,1211 @@
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="12"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="87" ht="13.8" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8" spans="1:15">
+      <c r="A88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <f>[1]BC!G2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" ht="13.8" spans="1:4">
+      <c r="A90" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0.0258261881814428</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.000351032370131479</v>
+      </c>
+    </row>
+    <row r="91" ht="13.8" spans="1:6">
+      <c r="A91" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0.014224726040376</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.000105978072004441</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" ht="13.8" spans="1:6">
+      <c r="A92" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.0155224532358245</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.000126076782804299</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" ht="13.8" spans="1:6">
+      <c r="A93" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.0168180239071698</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.000147945377899644</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" ht="13.8" spans="1:6">
+      <c r="A94" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.0181114323912947</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.000171589524979057</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A95" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.018240654108161</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.000174051806965541</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A96" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.018240654108161</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.000174051806965541</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A97" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.0184990324913948</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.000179029823090507</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A98" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.0186281891472015</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.00018154556785361</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A99" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.0186411036195037</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.000181798122976329</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A100" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.0186540178748252</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.000182050856419493</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A101" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.0186669319131607</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.000182303768188372</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A102" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.0186798457345051</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.000182556858288232</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A103" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.0186927593388531</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.000182810126724336</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A104" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.0187056727261995</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.000183063573501946</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A105" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.018718585896539</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.000183317198626323</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A106" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0.0187314988498665</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.000183571002102724</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A107" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0.0187444115861767</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.000183824983936405</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A108" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.0187573241054644</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.000184079144132621</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A109" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="12">
+        <v>0.0187702364077244</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.000184333482696622</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A110" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0.0187831484929515</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.000184587999633658</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A111" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0.0187960603611405</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.000184842694948978</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A112" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0.0188089720122861</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.000185097568647826</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A113" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="12">
+        <v>0.0188218834463831</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.000185352620735447</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A114" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0.0188347946634264</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.000185607851217082</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A115" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.0188477056634108</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.00018586326009797</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A116" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0.018860616446331</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.000186118847383349</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A117" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0.0188735270121818</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.000186374613078454</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A118" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.0188864373609581</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.000186630557188518</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A119" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0.0188993474926546</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.000186886679718774</v>
+      </c>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A120" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0.0189122574072662</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.000187142980674449</v>
+      </c>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A121" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0.0189251671047877</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.000187399460060772</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A122" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0.0189380765852138</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.000187656117882967</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A123" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="12">
+        <v>0.0189509858485395</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.000187912954146258</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A124" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0.0189638948947595</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.000188169968855866</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A125" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0.0189768037238686</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.00018842716201701</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A126" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0.0189897123358617</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.000188684533634906</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A127" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0.0190026207307336</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.00018894208371477</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A128" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.0190155289084791</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0.000189199812261815</v>
+      </c>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A129" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="12">
+        <v>0.019028436869093</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.000189457719281252</v>
+      </c>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A130" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0.0190413446125702</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.000189715804778288</v>
+      </c>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A131" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0.0190542521389055</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.000189974068758133</v>
+      </c>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A132" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0.0190671594480938</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.000190232511225989</v>
+      </c>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A133" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="12">
+        <v>0.0190800665401298</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.00019049113218706</v>
+      </c>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A134" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0.0190929734150084</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.000190749931646547</v>
+      </c>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A135" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="12">
+        <v>0.0191058800727245</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.000191008909609647</v>
+      </c>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A136" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="12">
+        <v>0.0191187865132729</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.000191268066081559</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A137" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="12">
+        <v>0.0191316927366485</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.000191527401067475</v>
+      </c>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A138" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.019144598742846</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.00019178691457259</v>
+      </c>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A139" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139" s="12">
+        <v>0.0191575045318604</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.000192046606602093</v>
+      </c>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A140" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0.0191704101036865</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.000192306477161173</v>
+      </c>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A141" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0.0191833154583191</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.000192566526255016</v>
+      </c>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A142" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0.0191962205957531</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.000192826753888807</v>
+      </c>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A143" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0.0192091255159834</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.000193087160067727</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A144" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0.0192220302190049</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.000193347744796959</v>
+      </c>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A145" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0.0192349347048123</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.000193608508081679</v>
+      </c>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A146" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0.0192478389734006</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0.000193869449927063</v>
+      </c>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A147" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0.0192607430247646</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0.000194130570338288</v>
+      </c>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A148" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.0192736468588992</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.000194391869320523</v>
+      </c>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A149" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0.0192865504757992</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0.00019465334687894</v>
+      </c>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A150" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="12">
+        <v>0.0192994538754597</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0.000194915003018706</v>
+      </c>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A151" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="12">
+        <v>0.0193123570578753</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0.000195176837744989</v>
+      </c>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A152" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" s="12">
+        <v>0.019325260023041</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0.000195438851062951</v>
+      </c>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A153" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="12">
+        <v>0.0193381627709517</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0.000195701042977755</v>
+      </c>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A154" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="12">
+        <v>0.0193510653016022</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0.000195963413494561</v>
+      </c>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A155" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0.0193639676149875</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0.000196225962618526</v>
+      </c>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A156" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0.0193768697111024</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0.000196488690354808</v>
+      </c>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A157" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0.0193897715899419</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0.000196751596708559</v>
+      </c>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" ht="13.8" collapsed="1" spans="1:4">
+      <c r="A158" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.0194026732515008</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0.000197014681684931</v>
+      </c>
+    </row>
+    <row r="159" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A159" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" s="12">
+        <v>0.0194155746957739</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0.000197277945289075</v>
+      </c>
+    </row>
+    <row r="160" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A160" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0.0194284759227563</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0.000197541387526138</v>
+      </c>
+    </row>
+    <row r="161" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A161" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0.0194413769324428</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0.000197805008401266</v>
+      </c>
+    </row>
+    <row r="162" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A162" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162" s="12">
+        <v>0.0194542777248282</v>
+      </c>
+      <c r="D162" s="12">
+        <v>0.000198068807919603</v>
+      </c>
+    </row>
+    <row r="163" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A163" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C163" s="12">
+        <v>0.0194671782999076</v>
+      </c>
+      <c r="D163" s="12">
+        <v>0.00019833278608629</v>
+      </c>
+    </row>
+    <row r="164" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A164" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C164" s="12">
+        <v>0.0194800786576758</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0.000198596942906468</v>
+      </c>
+    </row>
+    <row r="165" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A165" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" s="12">
+        <v>0.0194929787981277</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0.000198861278385274</v>
+      </c>
+    </row>
+    <row r="166" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A166" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0.0195058787212582</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0.000199125792527842</v>
+      </c>
+    </row>
+    <row r="167" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A167" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" s="12">
+        <v>0.0195187784270622</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0.000199390485339308</v>
+      </c>
+    </row>
+    <row r="168" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A168" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0.0195316779155347</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0.000199655356824803</v>
+      </c>
+    </row>
+    <row r="169" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A169" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0.0195445771866706</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0.000199920406989456</v>
+      </c>
+    </row>
+    <row r="170" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A170" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="12">
+        <v>0.0195574762404647</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0.000200185635838395</v>
+      </c>
+    </row>
+    <row r="171" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A171" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" s="12">
+        <v>0.0195703750769121</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0.000200451043376745</v>
+      </c>
+    </row>
+    <row r="172" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A172" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C172" s="12">
+        <v>0.0195832736960075</v>
+      </c>
+      <c r="D172" s="12">
+        <v>0.000200716629609631</v>
+      </c>
+    </row>
+    <row r="173" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A173" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173" s="12">
+        <v>0.019596172097746</v>
+      </c>
+      <c r="D173" s="12">
+        <v>0.000200982394542172</v>
+      </c>
+    </row>
+    <row r="174" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A174" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" s="12">
+        <v>0.0196090702821225</v>
+      </c>
+      <c r="D174" s="12">
+        <v>0.000201248338179489</v>
+      </c>
+    </row>
+    <row r="175" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A175" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175" s="12">
+        <v>0.0196219682491319</v>
+      </c>
+      <c r="D175" s="12">
+        <v>0.0002015144605267</v>
+      </c>
+    </row>
+    <row r="176" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A176" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" s="12">
+        <v>0.0196348659987691</v>
+      </c>
+      <c r="D176" s="12">
+        <v>0.000201780761588919</v>
+      </c>
+    </row>
+    <row r="177" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A177" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" s="12">
+        <v>0.019647763531029</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0.00020204724137126</v>
+      </c>
+    </row>
+    <row r="178" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A178" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178" s="12">
+        <v>0.0196606608459067</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0.000202313899878834</v>
+      </c>
+    </row>
+    <row r="179" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A179" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C179" s="12">
+        <v>0.0197896220375441</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0.000204990315965461</v>
+      </c>
+    </row>
+    <row r="180" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A180" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180" s="12">
+        <v>0.0199185614853958</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0.000207684610182898</v>
+      </c>
+    </row>
+    <row r="181" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A181" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" s="12">
+        <v>0.0200474791844324</v>
+      </c>
+      <c r="D181" s="12">
+        <v>0.000210396787609168</v>
+      </c>
+    </row>
+    <row r="182" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A182" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" s="12">
+        <v>0.020176375129646</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0.000213126853302142</v>
+      </c>
+    </row>
+    <row r="183" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A183" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C183" s="12">
+        <v>0.0203052493160502</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0.000215874812299571</v>
+      </c>
+    </row>
+    <row r="184" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A184" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184" s="12">
+        <v>0.0204341017386801</v>
+      </c>
+      <c r="D184" s="12">
+        <v>0.000218640669619121</v>
+      </c>
+    </row>
+    <row r="185" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A185" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185" s="12">
+        <v>0.0205629323925921</v>
+      </c>
+      <c r="D185" s="12">
+        <v>0.000221424430258407</v>
+      </c>
+    </row>
+    <row r="186" ht="13.8" collapsed="1" spans="1:4">
+      <c r="A186" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0.020691741272864</v>
+      </c>
+      <c r="D186" s="4">
+        <v>0.000224226099195029</v>
+      </c>
+    </row>
+    <row r="187" ht="13.8" spans="1:4">
+      <c r="A187" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C187" s="12">
+        <v>0.0219786314576869</v>
+      </c>
+      <c r="D187" s="12">
+        <v>0.000253228825744024</v>
+      </c>
+    </row>
+    <row r="188" ht="13.8" spans="1:4">
+      <c r="A188" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" s="12">
+        <v>0.0232633390210446</v>
+      </c>
+      <c r="D188" s="12">
+        <v>0.000284027710085988</v>
+      </c>
+    </row>
+    <row r="189" ht="13.8" spans="1:4">
+      <c r="A189" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="12">
+        <v>0.0245458593864223</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0.0003166274048988</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/比較.xlsx
+++ b/比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="10440"/>
+    <workbookView windowWidth="21480" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,22 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
-  <si>
-    <t>Aのマイニングレート</t>
-  </si>
-  <si>
-    <t>BCのマイニングレート</t>
-  </si>
-  <si>
-    <t>A→BCの遅延</t>
-  </si>
-  <si>
-    <t>BC→の遅延</t>
-  </si>
-  <si>
-    <t>破棄される確率</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <r>
       <rPr>
@@ -57,13 +42,71 @@
     <t>[0.01919956119489004,0.02090623996039146]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>採用</t>
+    </r>
+  </si>
+  <si>
+    <t>1/30</t>
+  </si>
+  <si>
+    <t>1/0.05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>採用</t>
+    </r>
+  </si>
+  <si>
+    <t>B:C=9:1</t>
+  </si>
+  <si>
+    <t>B:C=8:2</t>
+  </si>
+  <si>
+    <t>B:C=8.5:1.5</t>
+  </si>
+  <si>
     <t>遅延レートにBCの勝率をかけてみる</t>
-  </si>
-  <si>
-    <t>1/30</t>
-  </si>
-  <si>
-    <t>1/0.05</t>
   </si>
   <si>
     <t>遅延レートの分子に勝率の重みつけ</t>
@@ -207,6 +250,9 @@
     </r>
   </si>
   <si>
+    <t>B:C=9.5:0.5</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -264,18 +310,179 @@
   <si>
     <t>1/0.01</t>
   </si>
+  <si>
+    <t>B:C=1.5:8.5</t>
+  </si>
+  <si>
+    <t>B:C=2:8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,(1/1,1/0.1),1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.04209363558338461,0.04303333290341839]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を採用</t>
+    </r>
+  </si>
+  <si>
+    <t>1/0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A→C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を採用</t>
+    </r>
+  </si>
+  <si>
+    <t>A→BC=A→B+A→C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,(1/0.2,1/0.8),1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.04714488588169369,0.04833886400381726]</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>早い方</t>
+  </si>
+  <si>
+    <t>1/0.2</t>
+  </si>
+  <si>
+    <t>調和平均</t>
+  </si>
+  <si>
+    <t>遅い方</t>
+  </si>
+  <si>
+    <t>1/0.8</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,(1/0.2,1/0.8),(1/0.7,1/0.3),1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.07557365237200869,0.07715403687363598]</t>
+  </si>
+  <si>
+    <t>[0.0029618399071354297,0.0030594531415735426]</t>
+  </si>
+  <si>
+    <t>早い方・早い方</t>
+  </si>
+  <si>
+    <t>早い方・遅い方</t>
+  </si>
+  <si>
+    <t>1/0.7</t>
+  </si>
+  <si>
+    <t>遅い方・早い方</t>
+  </si>
+  <si>
+    <t>遅い方・遅い方</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00000000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,31 +497,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -329,17 +526,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,69 +542,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +558,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -435,9 +648,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,13 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,37 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +729,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,97 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,17 +863,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,37 +905,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +925,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,149 +968,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,41 +1120,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,7 +1248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7033260" y="14706600"/>
+          <a:off x="7033260" y="14714220"/>
           <a:ext cx="609600" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1059,7 +1282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7033260" y="14706600"/>
+          <a:off x="7033260" y="14714220"/>
           <a:ext cx="609600" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,6 +1319,11 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6">
+        <row r="2">
+          <cell r="H2">
+            <v>0.196097034984798</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="H3">
             <v>0.263321960714897</v>
@@ -1124,6 +1352,11 @@
           </cell>
           <cell r="J6">
             <v>0.50074319020564</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>0.192393563896046</v>
           </cell>
         </row>
       </sheetData>
@@ -1393,7 +1626,7 @@
   <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1404,1288 +1637,1997 @@
     <col min="4" max="4" width="12.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3333333333333"/>
+    <col min="9" max="9" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="13.8" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="13.8" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="4">
+        <v>0.0432171888892571</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0010531195112369</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" ht="13.8" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="4">
+        <v>0.00632678899415618</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.09608007797347e-5</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" ht="13.8" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" ht="13.8" spans="1:14">
-      <c r="A3" t="s">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>1*0.9+10*0.1</f>
+        <v>1.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.0240391961529818</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.000313606925772746</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>1*0.8+10*0.2</f>
+        <v>2.8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0170611941837488</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.000155720028049883</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>1*0.85+10*0.15</f>
+        <v>2.35</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.019890181114255</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.000212878072712167</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:8">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <f>1*[1]BC!$I$5+10*[1]BC!$J$5</f>
         <v>5.43815221015112</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G7" s="4">
         <v>0.00984541850568544</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H7" s="7">
         <v>5.10981697302455e-5</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" ht="13.8" spans="1:7">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" ht="13.8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <f>1/(1*[1]BC!$I$5)+1/(0.1*[1]BC!$J$5)</f>
         <v>22.2515944021859</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G8" s="4">
         <v>0.00400852524860528</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H8" s="7">
         <v>8.38506153654948e-6</v>
       </c>
     </row>
-    <row r="5" ht="13.8" spans="1:7">
-      <c r="A5" t="s">
+    <row r="9" ht="13.8" spans="1:8">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <f>(1*[1]BC!$I$5+10*[1]BC!$J$5)/2</f>
         <v>2.71907610507556</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G9" s="4">
         <v>0.0175015979436665</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H9" s="4">
         <v>0.00016401166729096</v>
       </c>
     </row>
-    <row r="7" ht="13.8" spans="1:7">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="3"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" ht="13.8" spans="1:9">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="13.8" spans="1:8">
-      <c r="A8" s="2" t="s">
+    <row r="12" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" ht="13.8" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C13" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
         <v>3.68697872776272</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>0.0590925427942975</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H13" s="4">
         <v>0.00146560255057005</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" ht="13.8" spans="2:7">
-      <c r="B10" s="13" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" spans="2:8">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C14" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14">
         <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
         <v>3.68697872776272</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G14" s="4">
         <v>0.0677216034547565</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H14" s="4">
         <v>0.0019418242523067</v>
       </c>
     </row>
-    <row r="11" ht="13.8" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
+    <row r="15" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A15" s="2"/>
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C15" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E15">
         <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
         <v>3.68697872776272</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>0.100063413128613</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H15" s="4">
         <v>0.0044866686232969</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B12" s="13" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" spans="2:8">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C16" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16">
         <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
         <v>3.68697872776272</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G16" s="4">
         <v>0.115078958541255</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H16" s="4">
         <v>0.00612532954197424</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B13" s="13" t="s">
+    <row r="17" ht="13.8" customHeight="1" spans="2:8">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C17" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E17">
         <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
         <v>3.68697872776272</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G17" s="4">
         <v>0.129419293522735</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H17" s="4">
         <v>0.00799224723476078</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1"/>
-    <row r="15" ht="13.8" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
+    <row r="18" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="3"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13" t="s">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="3"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C20" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.177947615234672</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.016194101106518</v>
-      </c>
-    </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="4">
+        <v>0.126144070390407</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.00749686130012588</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C21" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.126144070390407</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.00749686130012588</v>
-      </c>
-    </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="D21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>(1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3)/2</f>
+        <v>1.84348936388136</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.105755871035216</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.00509323779796649</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C22" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <f>(1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3)/2</f>
-        <v>1.84348936388136</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.105755871035216</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.00509323779796649</v>
-      </c>
-    </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13" t="s">
+      <c r="D22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="4">
+        <v>0.0986487139522709</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.00437841353180648</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C23" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.0700425004032987</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.00209978664611967</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.0986487139522709</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.00437841353180648</v>
-      </c>
-    </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C24" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.0700425004032987</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.00209978664611967</v>
-      </c>
-    </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="D24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.0590925427942975</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.00146560255057005</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" spans="2:8">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C25" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <f>1/1*[1]BC!$I$3+1/0.1*[1]BC!$J$3</f>
-        <v>3.68697872776272</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.0590925427942975</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.00146560255057005</v>
-      </c>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B22" s="13" t="s">
+      <c r="D25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="4">
+        <v>0.0463396084184129</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.000880838789498583</v>
+      </c>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="3"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C27" s="8">
         <f>[1]BC!$H$3</f>
         <v>0.263321960714897</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="4">
+        <v>0.177947615234672</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.016194101106518</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.0463396084184129</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.000880838789498583</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" spans="2:3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" ht="13.8" customHeight="1" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8">
+        <f>[1]BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.0280799613002082</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.000313292588905848</v>
+      </c>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8">
+        <f>[1]BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <f>1*0.85+10*0.15</f>
+        <v>2.35</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.0860063208387392</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.0032562507412102</v>
+      </c>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="8">
+        <f>[1]BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f>1*0.9+10*0.1</f>
+        <v>1.9</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.10306312005801</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.00481513569897713</v>
+      </c>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="8">
+        <f>[1]BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <f>1*0.95+10*0.05</f>
+        <v>1.45</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.129851241070287</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.0079923553018422</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A25" t="s">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E34">
         <f>(1*[1]BC!$I$5+10*[1]BC!$J$5)/2</f>
         <v>2.71907610507556</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G34" s="4">
         <v>0.0354696125591889</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H34" s="4">
         <v>0.000695666560953541</v>
       </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="35" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E35">
         <f>1*[1]BC!$I$5+10*[1]BC!$J$5</f>
         <v>5.43815221015112</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G35" s="4">
         <v>0.0279882465575482</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H35" s="4">
         <v>0.000431389145396468</v>
       </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
+    <row r="36" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4">
         <v>0.0643409243106004</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
         <f>1*[1]BC!$I$5+10*[1]BC!$J$5</f>
         <v>5.43815221015112</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G36" s="4">
         <v>0.0468670119912535</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H36" s="4">
         <v>0.00127719420242718</v>
       </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1"/>
-    <row r="29" ht="13.8" customHeight="1" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="3" t="s">
+    <row r="37" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.0606027761583392</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.00210178288206065</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="4">
+        <v>0.0245501569117732</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.000332106601263617</v>
+      </c>
+    </row>
+    <row r="39" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <f>1*0.9+10*0.1</f>
+        <v>1.9</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.0418584292358541</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.000975473096939154</v>
+      </c>
+    </row>
+    <row r="40" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <f>1*0.95+10*0.05</f>
+        <v>1.45</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.0483803883299525</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.0013145250687025</v>
+      </c>
+    </row>
+    <row r="41" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" s="3"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" ht="13.8" customHeight="1" spans="1:6">
-      <c r="A30" t="s">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="13.8" customHeight="1" spans="1:7">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
         <f>[1]BC!$H$6</f>
         <v>0.0664234836210433</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43">
         <f>(1/0.01*[1]BC!$I$6+1/0.1*[1]BC!$J$6)/2</f>
         <v>27.4665564407462</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G43" s="4">
         <v>0.00182924807085006</v>
       </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3">
+    <row r="44" ht="13.8" customHeight="1" spans="2:8">
+      <c r="B44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
         <f>[1]BC!$H$6</f>
         <v>0.0664234836210433</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D44" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
         <f>1/0.01*[1]BC!$I$6+1/0.1*[1]BC!$J$6</f>
         <v>54.9331128814924</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G44" s="4">
         <v>0.00102555835202897</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H44" s="7">
         <v>5.28766072599101e-7</v>
       </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
+    <row r="45" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
         <f>[1]BC!$H$6</f>
         <v>0.0664234836210433</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45">
         <f>1/0.01*[1]BC!$I$6+1/0.1*[1]BC!$J$6</f>
         <v>54.9331128814924</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G45" s="4">
         <v>0.00124622076632202</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H45" s="7">
         <v>7.81014653503399e-7</v>
       </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" ht="13.8" customHeight="1" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" ht="13.8" customHeight="1"/>
-    <row r="37" ht="13.8" customHeight="1" spans="1:5">
-      <c r="A37" s="2"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="13.8" customHeight="1" spans="2:6">
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="13.8" customHeight="1" spans="2:7">
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C50" s="3"/>
+    <row r="46" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4">
+        <f>[1]BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.000663094700239293</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2.20899284112502e-7</v>
+      </c>
+    </row>
+    <row r="47" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4">
+        <f>[1]BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.00463038923930692</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.08621447416666e-5</v>
+      </c>
+    </row>
+    <row r="48" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4">
+        <f>[1]BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <f>100*0.15+10*0.85</f>
+        <v>23.5</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.00210037335391336</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2.2228621081414e-6</v>
+      </c>
+    </row>
+    <row r="49" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4">
+        <f>[1]BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <f>100*0.2+10*0.8</f>
+        <v>28</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.00179863990018899</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1.62903010671527e-6</v>
+      </c>
+    </row>
+    <row r="50" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B50"/>
+      <c r="C50"/>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C51" s="3"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B51"/>
+      <c r="C51"/>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C52" s="3"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
       <c r="D52" s="3"/>
-    </row>
-    <row r="53" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C60" s="3"/>
+      <c r="E52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4">
+        <v>0.118514906291022</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A54" s="2"/>
+      <c r="B54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4">
+        <v>0.0525462134125973</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A55" s="2"/>
+      <c r="B55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4">
+        <v>0.043136561544153</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A56" s="2"/>
+      <c r="B56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4">
+        <v>0.0352002024046649</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4">
+        <v>0.0253740486023668</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" ht="13.8" customHeight="1" spans="1:7">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D58" s="3">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.0242608653310186</v>
+      </c>
+    </row>
+    <row r="59" ht="13.8" customHeight="1" spans="1:7">
+      <c r="A59" s="5"/>
+      <c r="B59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D59" s="3">
+        <v>15</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.0212706942636874</v>
+      </c>
+    </row>
+    <row r="60" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B60"/>
+      <c r="C60"/>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C61" s="3"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" ht="13.8" customHeight="1" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
       <c r="D61" s="3"/>
-    </row>
-    <row r="62" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C67" s="3"/>
+      <c r="E61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D62" s="3">
+        <f>1/0.2+1/0.8</f>
+        <v>6.25</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.0326130517918153</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.000577101339911278</v>
+      </c>
+    </row>
+    <row r="63" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.0373382985846544</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.000765948921259619</v>
+      </c>
+    </row>
+    <row r="64" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.0704894058903691</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.00298647892489532</v>
+      </c>
+    </row>
+    <row r="65" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.100235364854621</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.00650710118389721</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <f>[1]BC!$H$2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D66" s="3">
+        <f>(1/0.2+1/0.8)/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.05106128502234</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.00148710773034916</v>
+      </c>
+    </row>
+    <row r="67" ht="13.8" customHeight="1" spans="2:5">
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67" s="3"/>
-    </row>
-    <row r="68" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C68" s="3"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" ht="13.8" customHeight="1" spans="1:9">
+      <c r="A68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68" s="3"/>
-    </row>
-    <row r="69" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="E68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="10">
+        <f>[1]BC!$H$8</f>
+        <v>0.192393563896046</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.0601700617521447</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.00207818282495242</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="10" t="e">
+        <f>[1]BC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.100439276601291</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.00641738662086288</v>
+      </c>
+    </row>
+    <row r="71" ht="13.8" customHeight="1" spans="1:10">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10">
+        <f>[1]BC!$H$8</f>
+        <v>0.192393563896046</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.119871193212109</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.00942864082818841</v>
+      </c>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" ht="13.8" customHeight="1" spans="1:8">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="10" t="e">
+        <f>[1]BC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.154570579913442</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.0165734325666967</v>
+      </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" ht="13.8" spans="3:4">
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" ht="13.8" spans="3:4">
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" ht="13.8" spans="3:4">
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" ht="13.8" spans="3:4">
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" ht="13.8" spans="3:4">
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" ht="13.8" spans="3:4">
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" ht="13.8" spans="3:4">
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
     </row>
     <row r="107" ht="13.8" spans="1:5">
       <c r="A107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="7"/>
-      <c r="E108" s="8"/>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5"/>
     </row>
     <row r="110" ht="13.8" spans="3:10">
-      <c r="C110" s="3"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="J110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" ht="13.8" spans="3:17">
-      <c r="C111" s="3"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="J111" s="3"/>
-      <c r="L111" s="7"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="Q111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="J111" s="4"/>
+      <c r="L111" s="5"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="Q111" s="4"/>
     </row>
     <row r="112" ht="13.8" spans="3:10">
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="J112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" ht="13.8" spans="3:10">
-      <c r="C113" s="3"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="J113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" ht="13.8" spans="3:10">
-      <c r="C114" s="3"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="J114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" ht="13.8" spans="3:10">
-      <c r="C115" s="3"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="J115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" ht="13.8" spans="3:10">
-      <c r="C116" s="3"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="J116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" ht="13.8" spans="3:10">
-      <c r="C117" s="3"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="J117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="J117" s="4"/>
     </row>
     <row r="118" ht="13.8" spans="3:10">
-      <c r="C118" s="3"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="J118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" ht="13.8" spans="3:10">
-      <c r="C119" s="3"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="J119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="J119" s="4"/>
     </row>
     <row r="120" ht="13.8" spans="3:10">
-      <c r="C120" s="3"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="J120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" ht="13.8" spans="3:10">
-      <c r="C121" s="3"/>
-      <c r="H121" s="9"/>
-      <c r="J121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="H121" s="11"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="123" ht="13.8" spans="1:5">
       <c r="A123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="10"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="8"/>
+    <row r="124" spans="1:4">
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="126" ht="13.8" spans="3:10">
-      <c r="C126" s="3"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="J126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" ht="13.8" spans="3:10">
-      <c r="C127" s="3"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="J127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" ht="13.8" spans="3:10">
-      <c r="C128" s="3"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="J128" s="3"/>
+      <c r="C128" s="4"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="J128" s="4"/>
     </row>
     <row r="129" ht="13.8" spans="3:10">
-      <c r="C129" s="3"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="J129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="J129" s="4"/>
     </row>
     <row r="130" ht="13.8" spans="3:10">
-      <c r="C130" s="3"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="J130" s="3"/>
+      <c r="C130" s="4"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="J130" s="4"/>
     </row>
     <row r="131" ht="13.8" spans="3:10">
-      <c r="C131" s="3"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="J131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="J131" s="4"/>
     </row>
     <row r="132" ht="13.8" spans="3:10">
-      <c r="C132" s="3"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="J132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="J132" s="4"/>
     </row>
     <row r="133" ht="13.8" spans="3:10">
-      <c r="C133" s="3"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="J133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="J133" s="4"/>
     </row>
     <row r="134" ht="13.8" spans="3:10">
-      <c r="C134" s="3"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="J134" s="3"/>
+      <c r="C134" s="4"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="J134" s="4"/>
     </row>
     <row r="135" ht="13.8" spans="3:10">
-      <c r="C135" s="3"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="J135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" ht="13.8" spans="3:10">
-      <c r="C136" s="3"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="J136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="J136" s="4"/>
     </row>
     <row r="138" ht="13.8" spans="1:5">
       <c r="A138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="10"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="8"/>
+    <row r="139" spans="1:4">
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="141" ht="13.8" spans="3:10">
-      <c r="C141" s="3"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="J141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="J141" s="4"/>
     </row>
     <row r="142" ht="13.8" spans="3:10">
-      <c r="C142" s="3"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="J142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="J142" s="4"/>
     </row>
     <row r="143" ht="13.8" spans="3:10">
-      <c r="C143" s="3"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="J143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="J143" s="4"/>
     </row>
     <row r="144" ht="13.8" spans="3:10">
-      <c r="C144" s="3"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="J144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="J144" s="4"/>
     </row>
     <row r="145" ht="13.8" spans="3:10">
-      <c r="C145" s="3"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="J145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="J145" s="4"/>
     </row>
     <row r="146" ht="13.8" spans="3:10">
-      <c r="C146" s="3"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="J146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="J146" s="4"/>
     </row>
     <row r="147" ht="13.8" spans="3:10">
-      <c r="C147" s="3"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="J147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="J147" s="4"/>
     </row>
     <row r="148" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C148" s="3"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="J148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="J148" s="4"/>
     </row>
     <row r="149" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C149" s="3"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="J149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C150" s="3"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="J150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="J150" s="4"/>
     </row>
     <row r="151" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C151" s="3"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="J151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="J151" s="4"/>
     </row>
     <row r="152" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C152" s="3"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="J152" s="3"/>
+      <c r="C152" s="4"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="J152" s="4"/>
     </row>
     <row r="153" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C153" s="3"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="J153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="J153" s="4"/>
     </row>
     <row r="154" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C154" s="3"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="J154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="J154" s="4"/>
     </row>
     <row r="155" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C155" s="3"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="J155" s="3"/>
+      <c r="C155" s="4"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="J155" s="4"/>
     </row>
     <row r="156" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C156" s="3"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="J156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="J156" s="4"/>
     </row>
     <row r="157" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C157" s="3"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="J157" s="3"/>
+      <c r="C157" s="4"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="J157" s="4"/>
     </row>
     <row r="158" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C158" s="3"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="J158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="J158" s="4"/>
     </row>
     <row r="159" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C159" s="3"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="J159" s="3"/>
+      <c r="C159" s="4"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="J159" s="4"/>
     </row>
     <row r="160" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C160" s="3"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="J160" s="3"/>
+      <c r="C160" s="4"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="J160" s="4"/>
     </row>
     <row r="161" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C161" s="3"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="J161" s="3"/>
+      <c r="C161" s="4"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="J161" s="4"/>
     </row>
     <row r="162" ht="13.8" customHeight="1" spans="3:8">
-      <c r="C162" s="3"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
+      <c r="C162" s="4"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" ht="13.8" customHeight="1" spans="3:8">
-      <c r="C163" s="3"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
+      <c r="C163" s="4"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" ht="13.8" customHeight="1" spans="3:8">
-      <c r="C164" s="3"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
+      <c r="C164" s="4"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" ht="13.8" customHeight="1" spans="3:8">
-      <c r="C165" s="3"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
+      <c r="C165" s="4"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166" ht="13.8" customHeight="1" spans="3:8">
-      <c r="C166" s="3"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
+      <c r="C166" s="4"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" ht="13.8" customHeight="1"/>
     <row r="168" ht="13.8" customHeight="1" spans="1:8">
       <c r="A168" s="2"/>
-      <c r="E168" s="3"/>
-      <c r="H168" s="3"/>
-    </row>
-    <row r="169" ht="13.8" customHeight="1" spans="1:5">
-      <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
-      <c r="E169" s="8"/>
+      <c r="E168" s="4"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" ht="13.8" customHeight="1" spans="1:2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" ht="13.8" customHeight="1"/>
     <row r="171" ht="13.8" customHeight="1" spans="3:3">
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" ht="13.8" customHeight="1" spans="3:10">
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="J172" s="4"/>
     </row>
     <row r="173" ht="13.8" customHeight="1" spans="3:11">
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="F173" s="12"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="F173" s="8"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
     </row>
     <row r="174" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
     </row>
     <row r="175" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
     </row>
     <row r="177" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
     </row>
     <row r="179" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
     </row>
     <row r="180" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
     </row>
     <row r="181" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
     </row>
     <row r="182" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" ht="13.8" customHeight="1" spans="3:4">
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
     </row>
     <row r="184" ht="13.8" customHeight="1"/>
     <row r="185" ht="13.8" customHeight="1"/>
@@ -2693,16 +3635,16 @@
     <row r="187" ht="13.8" customHeight="1"/>
     <row r="188" ht="13.8" customHeight="1"/>
     <row r="190" ht="13.8" spans="3:4">
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
     </row>
     <row r="193" ht="13.8" spans="1:9">
       <c r="A193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="I193" s="3"/>
+      <c r="I193" s="4"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="7"/>
+      <c r="A194" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
